--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_28.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.03141751042287075</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab:min', 'Ab:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3028846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.59, 9.13)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(35.155014, 49.662244)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:22.500000', '0:01:30.740000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.860000', '0:00:05.140000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1298507462686567</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['A/3', 'D', 'F#:min/5', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
+          <t>[['E', 'A', 'C#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.78, 24.04)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:23.446916', '0:00:30.134263')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:48.640189', '0:00:57.045249')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[('0:01:11.640000', '0:01:19.220000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1113122171945701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['A', 'A:7/3', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(61.76, 69.34)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:18.117383', '0:00:21.658426'), ('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:51.800000', '0:00:59.900000'), ('0:00:16.040000', '0:00:22.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4038461538461539</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08749999999999999</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'F#']]</t>
+          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(60.04, 70.96)]</t>
+          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(19.602494, 27.450839)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:37.200000', '0:00:43.880000'), ('0:00:00.800000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:40.440000', '0:00:43.320000'), ('0:04:13.840000', '0:04:17.600000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05966228893058161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[['C:7', 'F', 'F'], ['F', 'F:7', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.04, 22.4)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:06.980000', '0:00:13.380000'), ('0:01:00.800000', '0:01:09.040000'), ('0:00:18.320000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:49.610000', '0:00:55.160000'), ('0:00:29.470000', '0:00:32.220000'), ('0:01:02.530000', '0:01:06.230000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.3, 19.52)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4115853658536585</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.833, 21.409)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08741554054054054</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['C', 'C', 'G:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(175.57, 179.38), (200.58, 201.51)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.04, 11.44), (7.84, 13.24)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>[['F#/5', 'C#', 'F#/5'], ['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.64, 23.48)]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.094553, 16.853782)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:00.391566', '0:02:07.006105'), ('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_15</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04305555555555556</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'C', 'C', 'C']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.440395, 3.280385)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(23.67, 26.74)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2664473684210527</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(54.18, 61.46)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.634761, 15.986961)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1019736842105263</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(75.355124, 80.742154)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(65.382154, 74.101247)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1261904761904762</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.043, 10.286)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(19.616133, 25.815861)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(107.9, 109.3)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.32, 51.92)]</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04223722275795564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['B:hdim7', 'B:hdim7', 'B:hdim7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['C:min6', 'C:min6', 'C:min6']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(43.56, 48.1), (176.94, 179.82)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(26.13, 29.49), (0.56, 3.85)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
